--- a/server/data/resources/AMR15_testfile.xlsx
+++ b/server/data/resources/AMR15_testfile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tobias\Desktop\BMF-DataVis\server\data\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48488A34-31BA-4D9F-AE9C-65B46B13D252}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241A23DD-70F4-4186-8823-D09DDE392FDB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E34745B0-97AD-4A1A-8C32-AE0DB411A035}"/>
   </bookViews>
@@ -65,121 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="562">
-  <si>
-    <t>ANR16</t>
-  </si>
-  <si>
-    <t>eANR</t>
-  </si>
-  <si>
-    <t>eErwf15b35g</t>
-  </si>
-  <si>
-    <t>DAL_Erwfg15</t>
-  </si>
-  <si>
-    <t>DAL_Erwfg35</t>
-  </si>
-  <si>
-    <t>eDAltErwf</t>
-  </si>
-  <si>
-    <t>ErsatzQ15g</t>
-  </si>
-  <si>
-    <t>ErsatzQ35g</t>
-  </si>
-  <si>
-    <t>eErsatzQ</t>
-  </si>
-  <si>
-    <t>altJg15g</t>
-  </si>
-  <si>
-    <t>altJg35g</t>
-  </si>
-  <si>
-    <t>eAltJg</t>
-  </si>
-  <si>
-    <t>JgOld_to_bg15</t>
-  </si>
-  <si>
-    <t>JgOld_to_bg35</t>
-  </si>
-  <si>
-    <t>eJgOld_to_bg</t>
-  </si>
-  <si>
-    <t>JgOld_to_Erwfg15</t>
-  </si>
-  <si>
-    <t>JgOld_to_Erwfg35</t>
-  </si>
-  <si>
-    <t>eJgOld_to_Erwfg</t>
-  </si>
-  <si>
-    <t>Jg_to_bg15</t>
-  </si>
-  <si>
-    <t>Jg_to_bg35</t>
-  </si>
-  <si>
-    <t>eJg_to_bg</t>
-  </si>
-  <si>
-    <t>old_to_bg15</t>
-  </si>
-  <si>
-    <t>old_to_bg35</t>
-  </si>
-  <si>
-    <t>eold_to_bg</t>
-  </si>
-  <si>
-    <t>pot90</t>
-  </si>
-  <si>
-    <t>pot15</t>
-  </si>
-  <si>
-    <t>ePot</t>
-  </si>
-  <si>
-    <t>pkw_bahn12</t>
-  </si>
-  <si>
-    <t>pkw_bahn17</t>
-  </si>
-  <si>
-    <t>epkw_bahn</t>
-  </si>
-  <si>
-    <t>HRangIS12</t>
-  </si>
-  <si>
-    <t>HRangIS17</t>
-  </si>
-  <si>
-    <t>eHRangIS</t>
-  </si>
-  <si>
-    <t>AHHm50_14</t>
-  </si>
-  <si>
-    <t>AHHm50_17</t>
-  </si>
-  <si>
-    <t>eAHHm50</t>
-  </si>
-  <si>
-    <t>AHHm100_17</t>
-  </si>
-  <si>
-    <t>qPiWTR17</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="551">
   <si>
     <t>Husum</t>
   </si>
@@ -1751,6 +1637,87 @@
   </si>
   <si>
     <t>258</t>
+  </si>
+  <si>
+    <t>Verfgb. Ausbildungsstellen je 100 Bewerber</t>
+  </si>
+  <si>
+    <t>Verfgb. Ausbildungsstellen je 100 Bewerber (2012=100)</t>
+  </si>
+  <si>
+    <t>Entwicklung Erwerbsfähige (20-u.65 Jahre), (2015 = 100)</t>
+  </si>
+  <si>
+    <t>Durchschnittsalter Erwerbsfähige (20-u.65 Jahre) in Jahren</t>
+  </si>
+  <si>
+    <t>Entwicklung Durchschnittsalter Erwerbsfähige (20-u.65 Jahre) (2015 = 100)</t>
+  </si>
+  <si>
+    <t>Ersatzquote (15-u.20-Jährige je 100 60-u.65-jährige Erwerbsfähige)</t>
+  </si>
+  <si>
+    <t>Entwicklung  Ersatzquote (2015 = 100)</t>
+  </si>
+  <si>
+    <t>Alte Erwerbsfähige (50-u.65) je 100 junge Erwerbsfähige (20-u.30)</t>
+  </si>
+  <si>
+    <t>Entwicklung Alte Erwerbsfähige (50-u.65) je 100 junge Erwerbsfähige (20-u.30)</t>
+  </si>
+  <si>
+    <t>Junge (unter 20-Jährige) und alte Einwohner (65 und älter) je 100 Einwohner</t>
+  </si>
+  <si>
+    <t>Entwicklung Junge (unter 20-Jährige) und alte Einwohner (65 und älter) je 100 Einwohner</t>
+  </si>
+  <si>
+    <t>Junge (u. 20) und alte Einwohner (65+) je 100 Erwerbsfähige (15-64)</t>
+  </si>
+  <si>
+    <t>Entwicklung Junge (u. 20) und alte Einwohner (65+) je 100 Erwerbsfähige (15-64)</t>
+  </si>
+  <si>
+    <t>JungeEinwohner  (u. 20) je 100 Einwohner</t>
+  </si>
+  <si>
+    <t>Entwicklung JungeEinwohner  (u. 20) je 100 Einwohner</t>
+  </si>
+  <si>
+    <t>Alte Einwohner (65+) je 100 Einwohner</t>
+  </si>
+  <si>
+    <t>Entwicklung Alte Einwohner (65+) je 100 Einwohner</t>
+  </si>
+  <si>
+    <t>Regionales Bevölkerungspotenzial (von BBSR)</t>
+  </si>
+  <si>
+    <t>Entwicklung Regionales Bevölkerungspotenzial (von BBSR)</t>
+  </si>
+  <si>
+    <t>Erreichbarkeit Agglomerationsräume PKW/Schiene</t>
+  </si>
+  <si>
+    <t>Entwicklung Erreichbarkeit Agglomerationsräume PKW/Schiene</t>
+  </si>
+  <si>
+    <t>Hochrangige Verkehrsinfrastruktureinrichtungen (BBSR)</t>
+  </si>
+  <si>
+    <t>Entwicklung Hochrangige Verkehrsinfrastruktureinrichtungen (BBSR)</t>
+  </si>
+  <si>
+    <t>Haushalte Breitband 50Mbit/s BBSR</t>
+  </si>
+  <si>
+    <t>Entwicklung Haushalte Breitband 50Mbit/s BBSR</t>
+  </si>
+  <si>
+    <t>Haushalte Breitband 100Mbit/s BBSR</t>
+  </si>
+  <si>
+    <t>Personaleinsatz Wissenstransfereinrichtungen BBSR</t>
   </si>
 </sst>
 </file>
@@ -2118,7 +2085,7 @@
   <dimension ref="A1:AO259"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="AM3" sqref="AM3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2144,127 +2111,127 @@
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>303</v>
+        <v>265</v>
       </c>
       <c r="B1" t="s">
-        <v>304</v>
+        <v>266</v>
       </c>
       <c r="C1" t="s">
-        <v>295</v>
+        <v>257</v>
       </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>524</v>
       </c>
       <c r="E1" t="s">
-        <v>1</v>
+        <v>525</v>
       </c>
       <c r="F1" t="s">
-        <v>2</v>
+        <v>526</v>
       </c>
       <c r="G1" t="s">
-        <v>3</v>
+        <v>527</v>
       </c>
       <c r="H1" t="s">
-        <v>4</v>
+        <v>527</v>
       </c>
       <c r="I1" t="s">
-        <v>5</v>
+        <v>528</v>
       </c>
       <c r="J1" t="s">
-        <v>6</v>
+        <v>529</v>
       </c>
       <c r="K1" t="s">
-        <v>7</v>
+        <v>529</v>
       </c>
       <c r="L1" t="s">
-        <v>8</v>
+        <v>530</v>
       </c>
       <c r="M1" t="s">
-        <v>9</v>
+        <v>531</v>
       </c>
       <c r="N1" t="s">
-        <v>10</v>
+        <v>531</v>
       </c>
       <c r="O1" t="s">
-        <v>11</v>
+        <v>532</v>
       </c>
       <c r="P1" t="s">
-        <v>12</v>
+        <v>533</v>
       </c>
       <c r="Q1" t="s">
-        <v>13</v>
+        <v>533</v>
       </c>
       <c r="R1" t="s">
-        <v>14</v>
+        <v>534</v>
       </c>
       <c r="S1" t="s">
-        <v>15</v>
+        <v>535</v>
       </c>
       <c r="T1" t="s">
-        <v>16</v>
+        <v>535</v>
       </c>
       <c r="U1" t="s">
-        <v>17</v>
+        <v>536</v>
       </c>
       <c r="V1" t="s">
-        <v>18</v>
+        <v>537</v>
       </c>
       <c r="W1" t="s">
-        <v>19</v>
+        <v>537</v>
       </c>
       <c r="X1" t="s">
-        <v>20</v>
+        <v>538</v>
       </c>
       <c r="Y1" t="s">
-        <v>21</v>
+        <v>539</v>
       </c>
       <c r="Z1" t="s">
-        <v>22</v>
+        <v>539</v>
       </c>
       <c r="AA1" t="s">
-        <v>23</v>
+        <v>540</v>
       </c>
       <c r="AB1" t="s">
-        <v>24</v>
+        <v>541</v>
       </c>
       <c r="AC1" t="s">
-        <v>25</v>
+        <v>541</v>
       </c>
       <c r="AD1" t="s">
-        <v>26</v>
+        <v>542</v>
       </c>
       <c r="AE1" t="s">
-        <v>27</v>
+        <v>543</v>
       </c>
       <c r="AF1" t="s">
-        <v>28</v>
+        <v>543</v>
       </c>
       <c r="AG1" t="s">
-        <v>29</v>
+        <v>544</v>
       </c>
       <c r="AH1" t="s">
-        <v>30</v>
+        <v>545</v>
       </c>
       <c r="AI1" t="s">
-        <v>31</v>
+        <v>545</v>
       </c>
       <c r="AJ1" t="s">
-        <v>32</v>
+        <v>546</v>
       </c>
       <c r="AK1" t="s">
-        <v>33</v>
+        <v>547</v>
       </c>
       <c r="AL1" t="s">
-        <v>34</v>
+        <v>547</v>
       </c>
       <c r="AM1" t="s">
-        <v>35</v>
+        <v>548</v>
       </c>
       <c r="AN1" t="s">
-        <v>36</v>
+        <v>549</v>
       </c>
       <c r="AO1" t="s">
-        <v>37</v>
+        <v>550</v>
       </c>
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.25">
@@ -2272,10 +2239,10 @@
         <v>2016</v>
       </c>
       <c r="E2" t="s">
-        <v>297</v>
+        <v>259</v>
       </c>
       <c r="F2" t="s">
-        <v>298</v>
+        <v>260</v>
       </c>
       <c r="G2">
         <v>2015</v>
@@ -2284,7 +2251,7 @@
         <v>2035</v>
       </c>
       <c r="I2" t="s">
-        <v>298</v>
+        <v>260</v>
       </c>
       <c r="J2">
         <v>2015</v>
@@ -2293,7 +2260,7 @@
         <v>2035</v>
       </c>
       <c r="L2" t="s">
-        <v>299</v>
+        <v>261</v>
       </c>
       <c r="M2">
         <v>2015</v>
@@ -2302,7 +2269,7 @@
         <v>2035</v>
       </c>
       <c r="O2" t="s">
-        <v>298</v>
+        <v>260</v>
       </c>
       <c r="P2">
         <v>2015</v>
@@ -2311,7 +2278,7 @@
         <v>2035</v>
       </c>
       <c r="R2" t="s">
-        <v>298</v>
+        <v>260</v>
       </c>
       <c r="S2">
         <v>2015</v>
@@ -2320,7 +2287,7 @@
         <v>2035</v>
       </c>
       <c r="U2" t="s">
-        <v>298</v>
+        <v>260</v>
       </c>
       <c r="V2">
         <v>2015</v>
@@ -2329,7 +2296,7 @@
         <v>2035</v>
       </c>
       <c r="X2" t="s">
-        <v>298</v>
+        <v>260</v>
       </c>
       <c r="Y2">
         <v>2015</v>
@@ -2338,7 +2305,7 @@
         <v>2035</v>
       </c>
       <c r="AA2" t="s">
-        <v>298</v>
+        <v>260</v>
       </c>
       <c r="AB2">
         <v>1990</v>
@@ -2347,7 +2314,7 @@
         <v>2015</v>
       </c>
       <c r="AD2" t="s">
-        <v>300</v>
+        <v>262</v>
       </c>
       <c r="AE2">
         <v>2012</v>
@@ -2356,7 +2323,7 @@
         <v>2017</v>
       </c>
       <c r="AG2" t="s">
-        <v>301</v>
+        <v>263</v>
       </c>
       <c r="AH2">
         <v>2012</v>
@@ -2365,7 +2332,7 @@
         <v>2017</v>
       </c>
       <c r="AJ2" t="s">
-        <v>301</v>
+        <v>263</v>
       </c>
       <c r="AK2">
         <v>2014</v>
@@ -2374,7 +2341,7 @@
         <v>2017</v>
       </c>
       <c r="AM2" t="s">
-        <v>302</v>
+        <v>264</v>
       </c>
       <c r="AN2">
         <v>2017</v>
@@ -2385,13 +2352,13 @@
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>305</v>
+        <v>267</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D3">
         <v>90.408295528191829</v>
@@ -2510,13 +2477,13 @@
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>306</v>
+        <v>268</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D4">
         <v>98.300283286118983</v>
@@ -2635,13 +2602,13 @@
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>307</v>
+        <v>269</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D5">
         <v>98.260869565217391</v>
@@ -2760,13 +2727,13 @@
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>308</v>
+        <v>270</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D6">
         <v>90.407854984894271</v>
@@ -2885,13 +2852,13 @@
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>309</v>
+        <v>271</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D7">
         <v>98.815566835871408</v>
@@ -3010,13 +2977,13 @@
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>310</v>
+        <v>272</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D8">
         <v>96.968112911657073</v>
@@ -3135,13 +3102,13 @@
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>311</v>
+        <v>273</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D9">
         <v>102.37659963436928</v>
@@ -3260,13 +3227,13 @@
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>312</v>
+        <v>274</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D10">
         <v>98.057973787429447</v>
@@ -3385,13 +3352,13 @@
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>313</v>
+        <v>275</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D11">
         <v>103.89915966386553</v>
@@ -3510,13 +3477,13 @@
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>314</v>
+        <v>276</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D12">
         <v>103.58890701468188</v>
@@ -3635,13 +3602,13 @@
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>315</v>
+        <v>277</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D13">
         <v>108.59335038363172</v>
@@ -3760,13 +3727,13 @@
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>316</v>
+        <v>278</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D14">
         <v>98.039215686274503</v>
@@ -3885,13 +3852,13 @@
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>317</v>
+        <v>279</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D15">
         <v>103.57554786620531</v>
@@ -4010,13 +3977,13 @@
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>318</v>
+        <v>280</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D16">
         <v>108.44370860927152</v>
@@ -4135,13 +4102,13 @@
     </row>
     <row r="17" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>319</v>
+        <v>281</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D17">
         <v>98.031980319803196</v>
@@ -4260,13 +4227,13 @@
     </row>
     <row r="18" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>320</v>
+        <v>282</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D18">
         <v>96.467679265277283</v>
@@ -4385,13 +4352,13 @@
     </row>
     <row r="19" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>321</v>
+        <v>283</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D19">
         <v>99.479166666666657</v>
@@ -4510,13 +4477,13 @@
     </row>
     <row r="20" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>322</v>
+        <v>284</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D20">
         <v>103.84167636786961</v>
@@ -4635,13 +4602,13 @@
     </row>
     <row r="21" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>323</v>
+        <v>285</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D21">
         <v>105.09641873278237</v>
@@ -4760,13 +4727,13 @@
     </row>
     <row r="22" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>324</v>
+        <v>286</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D22">
         <v>103.81861575178996</v>
@@ -4885,13 +4852,13 @@
     </row>
     <row r="23" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>325</v>
+        <v>287</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D23">
         <v>99.432463110102148</v>
@@ -5010,13 +4977,13 @@
     </row>
     <row r="24" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>326</v>
+        <v>288</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="C24" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D24">
         <v>103.87596899224806</v>
@@ -5135,13 +5102,13 @@
     </row>
     <row r="25" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>327</v>
+        <v>289</v>
       </c>
       <c r="B25" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D25">
         <v>102.03283815480843</v>
@@ -5260,13 +5227,13 @@
     </row>
     <row r="26" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>328</v>
+        <v>290</v>
       </c>
       <c r="B26" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D26">
         <v>103.52595494613124</v>
@@ -5385,13 +5352,13 @@
     </row>
     <row r="27" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>329</v>
+        <v>291</v>
       </c>
       <c r="B27" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="C27" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D27">
         <v>102.52252252252252</v>
@@ -5510,13 +5477,13 @@
     </row>
     <row r="28" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>330</v>
+        <v>292</v>
       </c>
       <c r="B28" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D28">
         <v>101.9211324570273</v>
@@ -5635,13 +5602,13 @@
     </row>
     <row r="29" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>331</v>
+        <v>293</v>
       </c>
       <c r="B29" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D29">
         <v>102.45535714285714</v>
@@ -5760,13 +5727,13 @@
     </row>
     <row r="30" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>332</v>
+        <v>294</v>
       </c>
       <c r="B30" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="C30" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D30">
         <v>103.52369380315918</v>
@@ -5885,13 +5852,13 @@
     </row>
     <row r="31" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>333</v>
+        <v>295</v>
       </c>
       <c r="B31" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="C31" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D31">
         <v>99.482936918304034</v>
@@ -6010,13 +5977,13 @@
     </row>
     <row r="32" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>334</v>
+        <v>296</v>
       </c>
       <c r="B32" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="C32" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D32">
         <v>104.96420047732697</v>
@@ -6135,13 +6102,13 @@
     </row>
     <row r="33" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>335</v>
+        <v>297</v>
       </c>
       <c r="B33" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="C33" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D33">
         <v>103.97905759162305</v>
@@ -6260,13 +6227,13 @@
     </row>
     <row r="34" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>336</v>
+        <v>298</v>
       </c>
       <c r="B34" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="C34" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D34">
         <v>103.97553516819571</v>
@@ -6385,13 +6352,13 @@
     </row>
     <row r="35" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>337</v>
+        <v>299</v>
       </c>
       <c r="B35" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="C35" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D35">
         <v>101.20805369127517</v>
@@ -6510,13 +6477,13 @@
     </row>
     <row r="36" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>338</v>
+        <v>300</v>
       </c>
       <c r="B36" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="C36" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D36">
         <v>104.26315789473684</v>
@@ -6635,13 +6602,13 @@
     </row>
     <row r="37" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>339</v>
+        <v>301</v>
       </c>
       <c r="B37" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="C37" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D37">
         <v>104.50669914738124</v>
@@ -6760,13 +6727,13 @@
     </row>
     <row r="38" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>340</v>
+        <v>302</v>
       </c>
       <c r="B38" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="C38" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D38">
         <v>107.2280178837556</v>
@@ -6885,13 +6852,13 @@
     </row>
     <row r="39" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>341</v>
+        <v>303</v>
       </c>
       <c r="B39" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="C39" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D39">
         <v>107.14908456843941</v>
@@ -7010,13 +6977,13 @@
     </row>
     <row r="40" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>342</v>
+        <v>304</v>
       </c>
       <c r="B40" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="C40" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D40">
         <v>104.94845360824743</v>
@@ -7135,13 +7102,13 @@
     </row>
     <row r="41" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>343</v>
+        <v>305</v>
       </c>
       <c r="B41" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="C41" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D41">
         <v>104.45255474452554</v>
@@ -7260,13 +7227,13 @@
     </row>
     <row r="42" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>344</v>
+        <v>306</v>
       </c>
       <c r="B42" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="C42" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D42">
         <v>103.89972144846797</v>
@@ -7385,13 +7352,13 @@
     </row>
     <row r="43" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>345</v>
+        <v>307</v>
       </c>
       <c r="B43" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="C43" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D43">
         <v>98.507926639726449</v>
@@ -7510,13 +7477,13 @@
     </row>
     <row r="44" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>346</v>
+        <v>308</v>
       </c>
       <c r="B44" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="C44" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D44">
         <v>100.60422960725074</v>
@@ -7635,13 +7602,13 @@
     </row>
     <row r="45" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>347</v>
+        <v>309</v>
       </c>
       <c r="B45" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="C45" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D45">
         <v>101.5370705244123</v>
@@ -7760,13 +7727,13 @@
     </row>
     <row r="46" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>348</v>
+        <v>310</v>
       </c>
       <c r="B46" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="C46" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D46">
         <v>101.23886953155245</v>
@@ -7885,13 +7852,13 @@
     </row>
     <row r="47" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>349</v>
+        <v>311</v>
       </c>
       <c r="B47" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="C47" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D47">
         <v>97.827581465695033</v>
@@ -8010,13 +7977,13 @@
     </row>
     <row r="48" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>350</v>
+        <v>312</v>
       </c>
       <c r="B48" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="C48" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D48">
         <v>98.425039872408291</v>
@@ -8135,13 +8102,13 @@
     </row>
     <row r="49" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>351</v>
+        <v>313</v>
       </c>
       <c r="B49" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="C49" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D49">
         <v>90.693316677076837</v>
@@ -8260,13 +8227,13 @@
     </row>
     <row r="50" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>352</v>
+        <v>314</v>
       </c>
       <c r="B50" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="C50" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D50">
         <v>90.661661191928673</v>
@@ -8385,13 +8352,13 @@
     </row>
     <row r="51" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>353</v>
+        <v>315</v>
       </c>
       <c r="B51" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="C51" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D51">
         <v>98.606060606060609</v>
@@ -8510,13 +8477,13 @@
     </row>
     <row r="52" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="B52" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="C52" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D52">
         <v>104.0119760479042</v>
@@ -8635,13 +8602,13 @@
     </row>
     <row r="53" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>355</v>
+        <v>317</v>
       </c>
       <c r="B53" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="C53" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D53">
         <v>97.967849560206247</v>
@@ -8760,13 +8727,13 @@
     </row>
     <row r="54" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>356</v>
+        <v>318</v>
       </c>
       <c r="B54" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="C54" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D54">
         <v>98.460798460798458</v>
@@ -8885,13 +8852,13 @@
     </row>
     <row r="55" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>357</v>
+        <v>319</v>
       </c>
       <c r="B55" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="C55" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D55">
         <v>97.928176795580114</v>
@@ -9010,13 +8977,13 @@
     </row>
     <row r="56" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>358</v>
+        <v>320</v>
       </c>
       <c r="B56" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="C56" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D56">
         <v>94.816753926701566</v>
@@ -9135,13 +9102,13 @@
     </row>
     <row r="57" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>359</v>
+        <v>321</v>
       </c>
       <c r="B57" t="s">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="C57" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D57">
         <v>104.01968826907301</v>
@@ -9260,13 +9227,13 @@
     </row>
     <row r="58" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>360</v>
+        <v>322</v>
       </c>
       <c r="B58" t="s">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="C58" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D58">
         <v>101.20589912816753</v>
@@ -9385,13 +9352,13 @@
     </row>
     <row r="59" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>361</v>
+        <v>323</v>
       </c>
       <c r="B59" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="C59" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D59">
         <v>98.722986247544213</v>
@@ -9510,13 +9477,13 @@
     </row>
     <row r="60" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>362</v>
+        <v>324</v>
       </c>
       <c r="B60" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="C60" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D60">
         <v>104.62765957446808</v>
@@ -9635,13 +9602,13 @@
     </row>
     <row r="61" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>363</v>
+        <v>325</v>
       </c>
       <c r="B61" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="C61" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D61">
         <v>104.01606425702812</v>
@@ -9760,13 +9727,13 @@
     </row>
     <row r="62" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>364</v>
+        <v>326</v>
       </c>
       <c r="B62" t="s">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="C62" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D62">
         <v>99.61904761904762</v>
@@ -9885,13 +9852,13 @@
     </row>
     <row r="63" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>365</v>
+        <v>327</v>
       </c>
       <c r="B63" t="s">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="C63" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D63">
         <v>98.841922408801381</v>
@@ -10010,13 +9977,13 @@
     </row>
     <row r="64" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>366</v>
+        <v>328</v>
       </c>
       <c r="B64" t="s">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="C64" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D64">
         <v>101.02783048703353</v>
@@ -10135,13 +10102,13 @@
     </row>
     <row r="65" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>367</v>
+        <v>329</v>
       </c>
       <c r="B65" t="s">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="C65" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D65">
         <v>101.39146567717997</v>
@@ -10260,13 +10227,13 @@
     </row>
     <row r="66" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>368</v>
+        <v>330</v>
       </c>
       <c r="B66" t="s">
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="C66" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D66">
         <v>102.38095238095238</v>
@@ -10385,13 +10352,13 @@
     </row>
     <row r="67" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>369</v>
+        <v>331</v>
       </c>
       <c r="B67" t="s">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="C67" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D67">
         <v>102.76292335115865</v>
@@ -10510,13 +10477,13 @@
     </row>
     <row r="68" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>370</v>
+        <v>332</v>
       </c>
       <c r="B68" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="C68" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D68">
         <v>95.671641791044777</v>
@@ -10635,13 +10602,13 @@
     </row>
     <row r="69" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>371</v>
+        <v>333</v>
       </c>
       <c r="B69" t="s">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="C69" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D69">
         <v>97.789115646258509</v>
@@ -10760,13 +10727,13 @@
     </row>
     <row r="70" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>372</v>
+        <v>334</v>
       </c>
       <c r="B70" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="C70" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D70">
         <v>99.705014749262531</v>
@@ -10885,13 +10852,13 @@
     </row>
     <row r="71" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>373</v>
+        <v>335</v>
       </c>
       <c r="B71" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="C71" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D71">
         <v>92.72727272727272</v>
@@ -11010,13 +10977,13 @@
     </row>
     <row r="72" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>374</v>
+        <v>336</v>
       </c>
       <c r="B72" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="C72" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D72">
         <v>101.62423178226514</v>
@@ -11135,13 +11102,13 @@
     </row>
     <row r="73" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>375</v>
+        <v>337</v>
       </c>
       <c r="B73" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="C73" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D73">
         <v>101.42528735632183</v>
@@ -11260,13 +11227,13 @@
     </row>
     <row r="74" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>376</v>
+        <v>338</v>
       </c>
       <c r="B74" t="s">
-        <v>109</v>
+        <v>71</v>
       </c>
       <c r="C74" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D74">
         <v>97.368421052631575</v>
@@ -11385,13 +11352,13 @@
     </row>
     <row r="75" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>377</v>
+        <v>339</v>
       </c>
       <c r="B75" t="s">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c r="C75" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D75">
         <v>98.408710217755441</v>
@@ -11510,13 +11477,13 @@
     </row>
     <row r="76" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>378</v>
+        <v>340</v>
       </c>
       <c r="B76" t="s">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="C76" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D76">
         <v>109.39112487100103</v>
@@ -11635,13 +11602,13 @@
     </row>
     <row r="77" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>379</v>
+        <v>341</v>
       </c>
       <c r="B77" t="s">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="C77" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D77">
         <v>105.30183727034121</v>
@@ -11760,13 +11727,13 @@
     </row>
     <row r="78" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>380</v>
+        <v>342</v>
       </c>
       <c r="B78" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="C78" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D78">
         <v>100</v>
@@ -11885,13 +11852,13 @@
     </row>
     <row r="79" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>381</v>
+        <v>343</v>
       </c>
       <c r="B79" t="s">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="C79" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D79">
         <v>100</v>
@@ -12010,13 +11977,13 @@
     </row>
     <row r="80" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>382</v>
+        <v>344</v>
       </c>
       <c r="B80" t="s">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="C80" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D80">
         <v>105.23609163160354</v>
@@ -12135,13 +12102,13 @@
     </row>
     <row r="81" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>383</v>
+        <v>345</v>
       </c>
       <c r="B81" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="C81" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D81">
         <v>98.49290780141844</v>
@@ -12260,13 +12227,13 @@
     </row>
     <row r="82" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>384</v>
+        <v>346</v>
       </c>
       <c r="B82" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="C82" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D82">
         <v>98.886956521739137</v>
@@ -12385,13 +12352,13 @@
     </row>
     <row r="83" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>385</v>
+        <v>347</v>
       </c>
       <c r="B83" t="s">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="C83" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D83">
         <v>98.82352941176471</v>
@@ -12510,13 +12477,13 @@
     </row>
     <row r="84" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>386</v>
+        <v>348</v>
       </c>
       <c r="B84" t="s">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="C84" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D84">
         <v>98.530549110595516</v>
@@ -12635,13 +12602,13 @@
     </row>
     <row r="85" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>387</v>
+        <v>349</v>
       </c>
       <c r="B85" t="s">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="C85" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D85">
         <v>107.66932270916334</v>
@@ -12760,13 +12727,13 @@
     </row>
     <row r="86" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>388</v>
+        <v>350</v>
       </c>
       <c r="B86" t="s">
-        <v>121</v>
+        <v>83</v>
       </c>
       <c r="C86" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D86">
         <v>95.610687022900763</v>
@@ -12885,13 +12852,13 @@
     </row>
     <row r="87" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>389</v>
+        <v>351</v>
       </c>
       <c r="B87" t="s">
-        <v>122</v>
+        <v>84</v>
       </c>
       <c r="C87" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D87">
         <v>98.599439775910369</v>
@@ -13010,13 +12977,13 @@
     </row>
     <row r="88" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>390</v>
+        <v>352</v>
       </c>
       <c r="B88" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="C88" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D88">
         <v>107.70509977827052</v>
@@ -13135,13 +13102,13 @@
     </row>
     <row r="89" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>391</v>
+        <v>353</v>
       </c>
       <c r="B89" t="s">
-        <v>124</v>
+        <v>86</v>
       </c>
       <c r="C89" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D89">
         <v>105</v>
@@ -13260,13 +13227,13 @@
     </row>
     <row r="90" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>392</v>
+        <v>354</v>
       </c>
       <c r="B90" t="s">
-        <v>125</v>
+        <v>87</v>
       </c>
       <c r="C90" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D90">
         <v>98.57988165680473</v>
@@ -13385,13 +13352,13 @@
     </row>
     <row r="91" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>393</v>
+        <v>355</v>
       </c>
       <c r="B91" t="s">
-        <v>126</v>
+        <v>88</v>
       </c>
       <c r="C91" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D91">
         <v>105.04451038575668</v>
@@ -13510,13 +13477,13 @@
     </row>
     <row r="92" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>394</v>
+        <v>356</v>
       </c>
       <c r="B92" t="s">
-        <v>127</v>
+        <v>89</v>
       </c>
       <c r="C92" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D92">
         <v>102.48447204968944</v>
@@ -13635,13 +13602,13 @@
     </row>
     <row r="93" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>395</v>
+        <v>357</v>
       </c>
       <c r="B93" t="s">
-        <v>128</v>
+        <v>90</v>
       </c>
       <c r="C93" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D93">
         <v>99.856032248776273</v>
@@ -13760,13 +13727,13 @@
     </row>
     <row r="94" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>396</v>
+        <v>358</v>
       </c>
       <c r="B94" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="C94" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D94">
         <v>103.73134328358209</v>
@@ -13885,13 +13852,13 @@
     </row>
     <row r="95" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>397</v>
+        <v>359</v>
       </c>
       <c r="B95" t="s">
-        <v>130</v>
+        <v>92</v>
       </c>
       <c r="C95" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D95">
         <v>101.54811715481171</v>
@@ -14010,13 +13977,13 @@
     </row>
     <row r="96" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>398</v>
+        <v>360</v>
       </c>
       <c r="B96" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="C96" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D96">
         <v>101.49532710280373</v>
@@ -14135,13 +14102,13 @@
     </row>
     <row r="97" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>399</v>
+        <v>361</v>
       </c>
       <c r="B97" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="C97" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D97">
         <v>105.36130536130537</v>
@@ -14260,13 +14227,13 @@
     </row>
     <row r="98" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>400</v>
+        <v>362</v>
       </c>
       <c r="B98" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="C98" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D98">
         <v>103.50448247758762</v>
@@ -14385,13 +14352,13 @@
     </row>
     <row r="99" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>401</v>
+        <v>363</v>
       </c>
       <c r="B99" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="C99" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D99">
         <v>105.44388609715243</v>
@@ -14510,13 +14477,13 @@
     </row>
     <row r="100" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>402</v>
+        <v>364</v>
       </c>
       <c r="B100" t="s">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="C100" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D100">
         <v>106.31469979296067</v>
@@ -14635,13 +14602,13 @@
     </row>
     <row r="101" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>403</v>
+        <v>365</v>
       </c>
       <c r="B101" t="s">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="C101" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D101">
         <v>105.67154876908695</v>
@@ -14760,13 +14727,13 @@
     </row>
     <row r="102" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>404</v>
+        <v>366</v>
       </c>
       <c r="B102" t="s">
-        <v>137</v>
+        <v>99</v>
       </c>
       <c r="C102" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D102">
         <v>98.911070780399285</v>
@@ -14885,13 +14852,13 @@
     </row>
     <row r="103" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>405</v>
+        <v>367</v>
       </c>
       <c r="B103" t="s">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="C103" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D103">
         <v>98.956521739130437</v>
@@ -15010,13 +14977,13 @@
     </row>
     <row r="104" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>406</v>
+        <v>368</v>
       </c>
       <c r="B104" t="s">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="C104" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D104">
         <v>106.57084188911705</v>
@@ -15135,13 +15102,13 @@
     </row>
     <row r="105" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>407</v>
+        <v>369</v>
       </c>
       <c r="B105" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="C105" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D105">
         <v>99.022346368715091</v>
@@ -15260,13 +15227,13 @@
     </row>
     <row r="106" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>408</v>
+        <v>370</v>
       </c>
       <c r="B106" t="s">
-        <v>141</v>
+        <v>103</v>
       </c>
       <c r="C106" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D106">
         <v>103.83386581469649</v>
@@ -15385,13 +15352,13 @@
     </row>
     <row r="107" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>409</v>
+        <v>371</v>
       </c>
       <c r="B107" t="s">
-        <v>142</v>
+        <v>104</v>
       </c>
       <c r="C107" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D107">
         <v>103.72596153846155</v>
@@ -15510,13 +15477,13 @@
     </row>
     <row r="108" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>410</v>
+        <v>372</v>
       </c>
       <c r="B108" t="s">
-        <v>143</v>
+        <v>105</v>
       </c>
       <c r="C108" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D108">
         <v>103.7117903930131</v>
@@ -15635,13 +15602,13 @@
     </row>
     <row r="109" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>411</v>
+        <v>373</v>
       </c>
       <c r="B109" t="s">
-        <v>144</v>
+        <v>106</v>
       </c>
       <c r="C109" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D109">
         <v>103.894297635605</v>
@@ -15760,13 +15727,13 @@
     </row>
     <row r="110" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>412</v>
+        <v>374</v>
       </c>
       <c r="B110" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="C110" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D110">
         <v>106.11620795107032</v>
@@ -15885,13 +15852,13 @@
     </row>
     <row r="111" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>413</v>
+        <v>375</v>
       </c>
       <c r="B111" t="s">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="C111" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D111">
         <v>106.4748201438849</v>
@@ -16010,13 +15977,13 @@
     </row>
     <row r="112" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>414</v>
+        <v>376</v>
       </c>
       <c r="B112" t="s">
-        <v>147</v>
+        <v>109</v>
       </c>
       <c r="C112" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D112">
         <v>105.0965250965251</v>
@@ -16135,13 +16102,13 @@
     </row>
     <row r="113" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>415</v>
+        <v>377</v>
       </c>
       <c r="B113" t="s">
-        <v>148</v>
+        <v>110</v>
       </c>
       <c r="C113" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D113">
         <v>105.03816793893131</v>
@@ -16260,13 +16227,13 @@
     </row>
     <row r="114" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>416</v>
+        <v>378</v>
       </c>
       <c r="B114" t="s">
-        <v>149</v>
+        <v>111</v>
       </c>
       <c r="C114" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D114">
         <v>106.2240663900415</v>
@@ -16385,13 +16352,13 @@
     </row>
     <row r="115" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>417</v>
+        <v>379</v>
       </c>
       <c r="B115" t="s">
-        <v>150</v>
+        <v>112</v>
       </c>
       <c r="C115" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D115">
         <v>101.663725737333</v>
@@ -16510,13 +16477,13 @@
     </row>
     <row r="116" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>418</v>
+        <v>380</v>
       </c>
       <c r="B116" t="s">
-        <v>151</v>
+        <v>113</v>
       </c>
       <c r="C116" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D116">
         <v>106.43274853801171</v>
@@ -16635,13 +16602,13 @@
     </row>
     <row r="117" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>419</v>
+        <v>381</v>
       </c>
       <c r="B117" t="s">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="C117" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D117">
         <v>106.36604774535809</v>
@@ -16760,13 +16727,13 @@
     </row>
     <row r="118" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>420</v>
+        <v>382</v>
       </c>
       <c r="B118" t="s">
-        <v>153</v>
+        <v>115</v>
       </c>
       <c r="C118" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D118">
         <v>106.30769230769231</v>
@@ -16885,13 +16852,13 @@
     </row>
     <row r="119" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>421</v>
+        <v>383</v>
       </c>
       <c r="B119" t="s">
-        <v>154</v>
+        <v>116</v>
       </c>
       <c r="C119" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D119">
         <v>106.37009189640769</v>
@@ -17010,13 +16977,13 @@
     </row>
     <row r="120" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>422</v>
+        <v>384</v>
       </c>
       <c r="B120" t="s">
-        <v>155</v>
+        <v>117</v>
       </c>
       <c r="C120" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D120">
         <v>106.37488106565176</v>
@@ -17135,13 +17102,13 @@
     </row>
     <row r="121" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>423</v>
+        <v>385</v>
       </c>
       <c r="B121" t="s">
-        <v>156</v>
+        <v>118</v>
       </c>
       <c r="C121" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D121">
         <v>108.53152132880332</v>
@@ -17260,13 +17227,13 @@
     </row>
     <row r="122" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>424</v>
+        <v>386</v>
       </c>
       <c r="B122" t="s">
-        <v>157</v>
+        <v>119</v>
       </c>
       <c r="C122" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D122">
         <v>107.94824399260628</v>
@@ -17385,13 +17352,13 @@
     </row>
     <row r="123" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>425</v>
+        <v>387</v>
       </c>
       <c r="B123" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="C123" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D123">
         <v>103.58565737051792</v>
@@ -17510,13 +17477,13 @@
     </row>
     <row r="124" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>426</v>
+        <v>388</v>
       </c>
       <c r="B124" t="s">
-        <v>159</v>
+        <v>121</v>
       </c>
       <c r="C124" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D124">
         <v>107.75492716366753</v>
@@ -17635,13 +17602,13 @@
     </row>
     <row r="125" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>427</v>
+        <v>389</v>
       </c>
       <c r="B125" t="s">
-        <v>160</v>
+        <v>122</v>
       </c>
       <c r="C125" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D125">
         <v>107.77453838678328</v>
@@ -17760,13 +17727,13 @@
     </row>
     <row r="126" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>428</v>
+        <v>390</v>
       </c>
       <c r="B126" t="s">
-        <v>161</v>
+        <v>123</v>
       </c>
       <c r="C126" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D126">
         <v>111.11111111111111</v>
@@ -17885,13 +17852,13 @@
     </row>
     <row r="127" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>429</v>
+        <v>391</v>
       </c>
       <c r="B127" t="s">
-        <v>162</v>
+        <v>124</v>
       </c>
       <c r="C127" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D127">
         <v>111.12716763005781</v>
@@ -18010,13 +17977,13 @@
     </row>
     <row r="128" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>430</v>
+        <v>392</v>
       </c>
       <c r="B128" t="s">
-        <v>163</v>
+        <v>125</v>
       </c>
       <c r="C128" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D128">
         <v>105.63304721030042</v>
@@ -18135,13 +18102,13 @@
     </row>
     <row r="129" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>431</v>
+        <v>393</v>
       </c>
       <c r="B129" t="s">
-        <v>164</v>
+        <v>126</v>
       </c>
       <c r="C129" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D129">
         <v>105.63035495716034</v>
@@ -18260,13 +18227,13 @@
     </row>
     <row r="130" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>432</v>
+        <v>394</v>
       </c>
       <c r="B130" t="s">
-        <v>165</v>
+        <v>127</v>
       </c>
       <c r="C130" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D130">
         <v>106.49692712906058</v>
@@ -18385,13 +18352,13 @@
     </row>
     <row r="131" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>433</v>
+        <v>395</v>
       </c>
       <c r="B131" t="s">
-        <v>166</v>
+        <v>128</v>
       </c>
       <c r="C131" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D131">
         <v>102.89783889980353</v>
@@ -18510,13 +18477,13 @@
     </row>
     <row r="132" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>434</v>
+        <v>396</v>
       </c>
       <c r="B132" t="s">
-        <v>167</v>
+        <v>129</v>
       </c>
       <c r="C132" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D132">
         <v>107.73333333333332</v>
@@ -18635,13 +18602,13 @@
     </row>
     <row r="133" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>435</v>
+        <v>397</v>
       </c>
       <c r="B133" t="s">
-        <v>168</v>
+        <v>130</v>
       </c>
       <c r="C133" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D133">
         <v>108.7594696969697</v>
@@ -18760,13 +18727,13 @@
     </row>
     <row r="134" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>436</v>
+        <v>398</v>
       </c>
       <c r="B134" t="s">
-        <v>169</v>
+        <v>131</v>
       </c>
       <c r="C134" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D134">
         <v>108.81782945736434</v>
@@ -18885,13 +18852,13 @@
     </row>
     <row r="135" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>437</v>
+        <v>399</v>
       </c>
       <c r="B135" t="s">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="C135" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D135">
         <v>108.75634517766497</v>
@@ -19010,13 +18977,13 @@
     </row>
     <row r="136" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>438</v>
+        <v>400</v>
       </c>
       <c r="B136" t="s">
-        <v>171</v>
+        <v>133</v>
       </c>
       <c r="C136" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D136">
         <v>110.50370016710431</v>
@@ -19135,13 +19102,13 @@
     </row>
     <row r="137" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>439</v>
+        <v>401</v>
       </c>
       <c r="B137" t="s">
-        <v>172</v>
+        <v>134</v>
       </c>
       <c r="C137" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D137">
         <v>108.77358490566039</v>
@@ -19260,13 +19227,13 @@
     </row>
     <row r="138" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>440</v>
+        <v>402</v>
       </c>
       <c r="B138" t="s">
-        <v>173</v>
+        <v>135</v>
       </c>
       <c r="C138" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D138">
         <v>106.0035842293907</v>
@@ -19385,13 +19352,13 @@
     </row>
     <row r="139" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>441</v>
+        <v>403</v>
       </c>
       <c r="B139" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="C139" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D139">
         <v>106.00118835412952</v>
@@ -19510,13 +19477,13 @@
     </row>
     <row r="140" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>442</v>
+        <v>404</v>
       </c>
       <c r="B140" t="s">
-        <v>175</v>
+        <v>137</v>
       </c>
       <c r="C140" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D140">
         <v>106.05504587155963</v>
@@ -19635,13 +19602,13 @@
     </row>
     <row r="141" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>443</v>
+        <v>405</v>
       </c>
       <c r="B141" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="C141" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D141">
         <v>112.41797072185764</v>
@@ -19760,13 +19727,13 @@
     </row>
     <row r="142" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>444</v>
+        <v>406</v>
       </c>
       <c r="B142" t="s">
-        <v>177</v>
+        <v>139</v>
       </c>
       <c r="C142" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D142">
         <v>105.84028605482717</v>
@@ -19885,13 +19852,13 @@
     </row>
     <row r="143" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>445</v>
+        <v>407</v>
       </c>
       <c r="B143" t="s">
-        <v>178</v>
+        <v>140</v>
       </c>
       <c r="C143" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D143">
         <v>105.86816720257235</v>
@@ -20010,13 +19977,13 @@
     </row>
     <row r="144" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>446</v>
+        <v>408</v>
       </c>
       <c r="B144" t="s">
-        <v>179</v>
+        <v>141</v>
       </c>
       <c r="C144" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D144">
         <v>108.42844600526777</v>
@@ -20135,13 +20102,13 @@
     </row>
     <row r="145" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>447</v>
+        <v>409</v>
       </c>
       <c r="B145" t="s">
-        <v>180</v>
+        <v>142</v>
       </c>
       <c r="C145" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D145">
         <v>113.60347322720695</v>
@@ -20260,13 +20227,13 @@
     </row>
     <row r="146" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>448</v>
+        <v>410</v>
       </c>
       <c r="B146" t="s">
-        <v>181</v>
+        <v>143</v>
       </c>
       <c r="C146" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D146">
         <v>110.84024896265561</v>
@@ -20385,13 +20352,13 @@
     </row>
     <row r="147" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>449</v>
+        <v>411</v>
       </c>
       <c r="B147" t="s">
-        <v>182</v>
+        <v>144</v>
       </c>
       <c r="C147" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D147">
         <v>110.08883248730965</v>
@@ -20510,13 +20477,13 @@
     </row>
     <row r="148" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>450</v>
+        <v>412</v>
       </c>
       <c r="B148" t="s">
-        <v>183</v>
+        <v>145</v>
       </c>
       <c r="C148" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D148">
         <v>112.48339973439573</v>
@@ -20635,13 +20602,13 @@
     </row>
     <row r="149" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>451</v>
+        <v>413</v>
       </c>
       <c r="B149" t="s">
-        <v>184</v>
+        <v>146</v>
       </c>
       <c r="C149" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D149">
         <v>112.43731193580741</v>
@@ -20760,13 +20727,13 @@
     </row>
     <row r="150" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>452</v>
+        <v>414</v>
       </c>
       <c r="B150" t="s">
-        <v>185</v>
+        <v>147</v>
       </c>
       <c r="C150" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D150">
         <v>113.65546218487394</v>
@@ -20885,13 +20852,13 @@
     </row>
     <row r="151" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>453</v>
+        <v>415</v>
       </c>
       <c r="B151" t="s">
-        <v>186</v>
+        <v>148</v>
       </c>
       <c r="C151" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D151">
         <v>111.45703611457036</v>
@@ -21010,13 +20977,13 @@
     </row>
     <row r="152" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>454</v>
+        <v>416</v>
       </c>
       <c r="B152" t="s">
-        <v>187</v>
+        <v>149</v>
       </c>
       <c r="C152" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D152">
         <v>111.45209580838322</v>
@@ -21135,13 +21102,13 @@
     </row>
     <row r="153" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>455</v>
+        <v>417</v>
       </c>
       <c r="B153" t="s">
-        <v>188</v>
+        <v>150</v>
       </c>
       <c r="C153" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D153">
         <v>111.42857142857143</v>
@@ -21260,13 +21227,13 @@
     </row>
     <row r="154" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>456</v>
+        <v>418</v>
       </c>
       <c r="B154" t="s">
-        <v>189</v>
+        <v>151</v>
       </c>
       <c r="C154" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D154">
         <v>111.46572104018912</v>
@@ -21385,13 +21352,13 @@
     </row>
     <row r="155" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>457</v>
+        <v>419</v>
       </c>
       <c r="B155" t="s">
-        <v>190</v>
+        <v>152</v>
       </c>
       <c r="C155" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D155">
         <v>109.78404583516968</v>
@@ -21510,13 +21477,13 @@
     </row>
     <row r="156" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>458</v>
+        <v>420</v>
       </c>
       <c r="B156" t="s">
-        <v>191</v>
+        <v>153</v>
       </c>
       <c r="C156" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D156">
         <v>109.79899497487438</v>
@@ -21635,13 +21602,13 @@
     </row>
     <row r="157" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>459</v>
+        <v>421</v>
       </c>
       <c r="B157" t="s">
-        <v>192</v>
+        <v>154</v>
       </c>
       <c r="C157" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D157">
         <v>113.70143149284253</v>
@@ -21760,13 +21727,13 @@
     </row>
     <row r="158" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>460</v>
+        <v>422</v>
       </c>
       <c r="B158" t="s">
-        <v>193</v>
+        <v>155</v>
       </c>
       <c r="C158" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D158">
         <v>113.63636363636364</v>
@@ -21885,13 +21852,13 @@
     </row>
     <row r="159" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>461</v>
+        <v>423</v>
       </c>
       <c r="B159" t="s">
-        <v>194</v>
+        <v>156</v>
       </c>
       <c r="C159" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D159">
         <v>113.50531107738999</v>
@@ -22010,13 +21977,13 @@
     </row>
     <row r="160" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>462</v>
+        <v>424</v>
       </c>
       <c r="B160" t="s">
-        <v>195</v>
+        <v>157</v>
       </c>
       <c r="C160" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D160">
         <v>110.34368255022413</v>
@@ -22135,13 +22102,13 @@
     </row>
     <row r="161" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>463</v>
+        <v>425</v>
       </c>
       <c r="B161" t="s">
-        <v>196</v>
+        <v>158</v>
       </c>
       <c r="C161" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D161">
         <v>108.3054769863718</v>
@@ -22260,13 +22227,13 @@
     </row>
     <row r="162" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>464</v>
+        <v>426</v>
       </c>
       <c r="B162" t="s">
-        <v>197</v>
+        <v>159</v>
       </c>
       <c r="C162" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D162">
         <v>122.97447280799112</v>
@@ -22385,13 +22352,13 @@
     </row>
     <row r="163" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="B163" t="s">
-        <v>198</v>
+        <v>160</v>
       </c>
       <c r="C163" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D163">
         <v>113.81880733944953</v>
@@ -22510,13 +22477,13 @@
     </row>
     <row r="164" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>466</v>
+        <v>428</v>
       </c>
       <c r="B164" t="s">
-        <v>199</v>
+        <v>161</v>
       </c>
       <c r="C164" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D164">
         <v>113.86271870794079</v>
@@ -22635,13 +22602,13 @@
     </row>
     <row r="165" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="B165" t="s">
-        <v>200</v>
+        <v>162</v>
       </c>
       <c r="C165" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D165">
         <v>113.80753138075315</v>
@@ -22760,13 +22727,13 @@
     </row>
     <row r="166" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>468</v>
+        <v>430</v>
       </c>
       <c r="B166" t="s">
-        <v>201</v>
+        <v>163</v>
       </c>
       <c r="C166" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D166">
         <v>116.13588110403397</v>
@@ -22885,13 +22852,13 @@
     </row>
     <row r="167" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>469</v>
+        <v>431</v>
       </c>
       <c r="B167" t="s">
-        <v>202</v>
+        <v>164</v>
       </c>
       <c r="C167" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D167">
         <v>116.1084529505582</v>
@@ -23010,13 +22977,13 @@
     </row>
     <row r="168" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>470</v>
+        <v>432</v>
       </c>
       <c r="B168" t="s">
-        <v>203</v>
+        <v>165</v>
       </c>
       <c r="C168" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D168">
         <v>113.51791530944627</v>
@@ -23135,13 +23102,13 @@
     </row>
     <row r="169" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>471</v>
+        <v>433</v>
       </c>
       <c r="B169" t="s">
-        <v>204</v>
+        <v>166</v>
       </c>
       <c r="C169" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D169">
         <v>113.43445287107259</v>
@@ -23260,13 +23227,13 @@
     </row>
     <row r="170" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="B170" t="s">
-        <v>205</v>
+        <v>167</v>
       </c>
       <c r="C170" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D170">
         <v>113.40929009640665</v>
@@ -23385,13 +23352,13 @@
     </row>
     <row r="171" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>473</v>
+        <v>435</v>
       </c>
       <c r="B171" t="s">
-        <v>206</v>
+        <v>168</v>
       </c>
       <c r="C171" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D171">
         <v>118.26722338204594</v>
@@ -23510,13 +23477,13 @@
     </row>
     <row r="172" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>474</v>
+        <v>436</v>
       </c>
       <c r="B172" t="s">
-        <v>207</v>
+        <v>169</v>
       </c>
       <c r="C172" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D172">
         <v>122.93218345746766</v>
@@ -23635,13 +23602,13 @@
     </row>
     <row r="173" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>475</v>
+        <v>437</v>
       </c>
       <c r="B173" t="s">
-        <v>208</v>
+        <v>170</v>
       </c>
       <c r="C173" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D173">
         <v>118.25688073394495</v>
@@ -23760,13 +23727,13 @@
     </row>
     <row r="174" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>476</v>
+        <v>438</v>
       </c>
       <c r="B174" t="s">
-        <v>209</v>
+        <v>171</v>
       </c>
       <c r="C174" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D174">
         <v>118.1735985533454</v>
@@ -23885,13 +23852,13 @@
     </row>
     <row r="175" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>477</v>
+        <v>439</v>
       </c>
       <c r="B175" t="s">
-        <v>210</v>
+        <v>172</v>
       </c>
       <c r="C175" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D175">
         <v>122.98507462686568</v>
@@ -24010,13 +23977,13 @@
     </row>
     <row r="176" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>478</v>
+        <v>440</v>
       </c>
       <c r="B176" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="C176" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D176">
         <v>108.97552130553036</v>
@@ -24135,13 +24102,13 @@
     </row>
     <row r="177" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>479</v>
+        <v>441</v>
       </c>
       <c r="B177" t="s">
-        <v>212</v>
+        <v>174</v>
       </c>
       <c r="C177" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D177">
         <v>109.3859649122807</v>
@@ -24260,13 +24227,13 @@
     </row>
     <row r="178" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>480</v>
+        <v>442</v>
       </c>
       <c r="B178" t="s">
-        <v>213</v>
+        <v>175</v>
       </c>
       <c r="C178" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D178">
         <v>109.56022944550669</v>
@@ -24385,13 +24352,13 @@
     </row>
     <row r="179" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>481</v>
+        <v>443</v>
       </c>
       <c r="B179" t="s">
-        <v>214</v>
+        <v>176</v>
       </c>
       <c r="C179" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D179">
         <v>109.64506172839505</v>
@@ -24510,13 +24477,13 @@
     </row>
     <row r="180" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>482</v>
+        <v>444</v>
       </c>
       <c r="B180" t="s">
-        <v>215</v>
+        <v>177</v>
       </c>
       <c r="C180" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D180">
         <v>110.7672469374597</v>
@@ -24635,13 +24602,13 @@
     </row>
     <row r="181" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>483</v>
+        <v>445</v>
       </c>
       <c r="B181" t="s">
-        <v>216</v>
+        <v>178</v>
       </c>
       <c r="C181" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D181">
         <v>109.66542750929369</v>
@@ -24760,13 +24727,13 @@
     </row>
     <row r="182" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>484</v>
+        <v>446</v>
       </c>
       <c r="B182" t="s">
-        <v>217</v>
+        <v>179</v>
       </c>
       <c r="C182" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D182">
         <v>110.60000000000001</v>
@@ -24885,13 +24852,13 @@
     </row>
     <row r="183" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>485</v>
+        <v>447</v>
       </c>
       <c r="B183" t="s">
-        <v>218</v>
+        <v>180</v>
       </c>
       <c r="C183" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D183">
         <v>110.79913606911447</v>
@@ -25010,13 +24977,13 @@
     </row>
     <row r="184" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>486</v>
+        <v>448</v>
       </c>
       <c r="B184" t="s">
-        <v>219</v>
+        <v>181</v>
       </c>
       <c r="C184" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D184">
         <v>110.72164948453609</v>
@@ -25135,13 +25102,13 @@
     </row>
     <row r="185" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>487</v>
+        <v>449</v>
       </c>
       <c r="B185" t="s">
-        <v>220</v>
+        <v>182</v>
       </c>
       <c r="C185" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D185">
         <v>108.61486486486487</v>
@@ -25260,13 +25227,13 @@
     </row>
     <row r="186" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>488</v>
+        <v>450</v>
       </c>
       <c r="B186" t="s">
-        <v>221</v>
+        <v>183</v>
       </c>
       <c r="C186" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D186">
         <v>110.53387863380127</v>
@@ -25385,13 +25352,13 @@
     </row>
     <row r="187" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>489</v>
+        <v>451</v>
       </c>
       <c r="B187" t="s">
-        <v>222</v>
+        <v>184</v>
       </c>
       <c r="C187" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D187">
         <v>114.36950146627566</v>
@@ -25510,13 +25477,13 @@
     </row>
     <row r="188" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>490</v>
+        <v>452</v>
       </c>
       <c r="B188" t="s">
-        <v>223</v>
+        <v>185</v>
       </c>
       <c r="C188" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D188">
         <v>114.25030978934325</v>
@@ -25635,13 +25602,13 @@
     </row>
     <row r="189" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>491</v>
+        <v>453</v>
       </c>
       <c r="B189" t="s">
-        <v>224</v>
+        <v>186</v>
       </c>
       <c r="C189" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D189">
         <v>107.53532182103611</v>
@@ -25760,13 +25727,13 @@
     </row>
     <row r="190" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>492</v>
+        <v>454</v>
       </c>
       <c r="B190" t="s">
-        <v>225</v>
+        <v>187</v>
       </c>
       <c r="C190" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D190">
         <v>110.66878980891718</v>
@@ -25885,13 +25852,13 @@
     </row>
     <row r="191" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>493</v>
+        <v>455</v>
       </c>
       <c r="B191" t="s">
-        <v>226</v>
+        <v>188</v>
       </c>
       <c r="C191" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D191">
         <v>110.65939514129897</v>
@@ -26010,13 +25977,13 @@
     </row>
     <row r="192" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>494</v>
+        <v>456</v>
       </c>
       <c r="B192" t="s">
-        <v>227</v>
+        <v>189</v>
       </c>
       <c r="C192" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D192">
         <v>114.24936386768448</v>
@@ -26135,13 +26102,13 @@
     </row>
     <row r="193" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="B193" t="s">
-        <v>228</v>
+        <v>190</v>
       </c>
       <c r="C193" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D193">
         <v>114.09618573797677</v>
@@ -26260,13 +26227,13 @@
     </row>
     <row r="194" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>496</v>
+        <v>458</v>
       </c>
       <c r="B194" t="s">
-        <v>229</v>
+        <v>191</v>
       </c>
       <c r="C194" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D194">
         <v>114.31064572425828</v>
@@ -26385,13 +26352,13 @@
     </row>
     <row r="195" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>497</v>
+        <v>459</v>
       </c>
       <c r="B195" t="s">
-        <v>230</v>
+        <v>192</v>
       </c>
       <c r="C195" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D195">
         <v>114.24694708276797</v>
@@ -26510,13 +26477,13 @@
     </row>
     <row r="196" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>498</v>
+        <v>460</v>
       </c>
       <c r="B196" t="s">
-        <v>231</v>
+        <v>193</v>
       </c>
       <c r="C196" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D196">
         <v>110.61946902654867</v>
@@ -26635,13 +26602,13 @@
     </row>
     <row r="197" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>499</v>
+        <v>461</v>
       </c>
       <c r="B197" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="C197" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D197">
         <v>105.85890793144679</v>
@@ -26760,13 +26727,13 @@
     </row>
     <row r="198" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>500</v>
+        <v>462</v>
       </c>
       <c r="B198" t="s">
-        <v>233</v>
+        <v>195</v>
       </c>
       <c r="C198" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D198">
         <v>112.37623762376239</v>
@@ -26885,13 +26852,13 @@
     </row>
     <row r="199" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>501</v>
+        <v>463</v>
       </c>
       <c r="B199" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="C199" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D199">
         <v>112.32876712328768</v>
@@ -27010,13 +26977,13 @@
     </row>
     <row r="200" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>502</v>
+        <v>464</v>
       </c>
       <c r="B200" t="s">
-        <v>235</v>
+        <v>197</v>
       </c>
       <c r="C200" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D200">
         <v>112.4335812964931</v>
@@ -27135,13 +27102,13 @@
     </row>
     <row r="201" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>503</v>
+        <v>465</v>
       </c>
       <c r="B201" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
       <c r="C201" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D201">
         <v>107.26786081943587</v>
@@ -27260,13 +27227,13 @@
     </row>
     <row r="202" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>504</v>
+        <v>466</v>
       </c>
       <c r="B202" t="s">
-        <v>237</v>
+        <v>199</v>
       </c>
       <c r="C202" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D202">
         <v>110.23720349563047</v>
@@ -27385,13 +27352,13 @@
     </row>
     <row r="203" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>505</v>
+        <v>467</v>
       </c>
       <c r="B203" t="s">
-        <v>238</v>
+        <v>200</v>
       </c>
       <c r="C203" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D203">
         <v>110.2402022756005</v>
@@ -27510,13 +27477,13 @@
     </row>
     <row r="204" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>506</v>
+        <v>468</v>
       </c>
       <c r="B204" t="s">
-        <v>239</v>
+        <v>201</v>
       </c>
       <c r="C204" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D204">
         <v>110.33229491173418</v>
@@ -27635,13 +27602,13 @@
     </row>
     <row r="205" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>507</v>
+        <v>469</v>
       </c>
       <c r="B205" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="C205" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D205">
         <v>110.31073446327684</v>
@@ -27760,13 +27727,13 @@
     </row>
     <row r="206" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>508</v>
+        <v>470</v>
       </c>
       <c r="B206" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
       <c r="C206" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D206">
         <v>97.305339725574484</v>
@@ -27885,13 +27852,13 @@
     </row>
     <row r="207" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>509</v>
+        <v>471</v>
       </c>
       <c r="B207" t="s">
-        <v>242</v>
+        <v>204</v>
       </c>
       <c r="C207" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D207">
         <v>111.48534860222297</v>
@@ -28010,13 +27977,13 @@
     </row>
     <row r="208" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>510</v>
+        <v>472</v>
       </c>
       <c r="B208" t="s">
-        <v>243</v>
+        <v>205</v>
       </c>
       <c r="C208" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D208">
         <v>110.07990165949602</v>
@@ -28135,13 +28102,13 @@
     </row>
     <row r="209" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>511</v>
+        <v>473</v>
       </c>
       <c r="B209" t="s">
-        <v>244</v>
+        <v>206</v>
       </c>
       <c r="C209" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D209">
         <v>102.4263431542461</v>
@@ -28260,13 +28227,13 @@
     </row>
     <row r="210" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>512</v>
+        <v>474</v>
       </c>
       <c r="B210" t="s">
-        <v>245</v>
+        <v>207</v>
       </c>
       <c r="C210" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D210">
         <v>91.985203452527742</v>
@@ -28385,13 +28352,13 @@
     </row>
     <row r="211" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>513</v>
+        <v>475</v>
       </c>
       <c r="B211" t="s">
-        <v>246</v>
+        <v>208</v>
       </c>
       <c r="C211" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D211">
         <v>110.69258809234508</v>
@@ -28510,13 +28477,13 @@
     </row>
     <row r="212" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>514</v>
+        <v>476</v>
       </c>
       <c r="B212" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="C212" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D212">
         <v>110.15325670498083</v>
@@ -28635,13 +28602,13 @@
     </row>
     <row r="213" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>515</v>
+        <v>477</v>
       </c>
       <c r="B213" t="s">
-        <v>248</v>
+        <v>210</v>
       </c>
       <c r="C213" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D213">
         <v>112.4215809284818</v>
@@ -28760,13 +28727,13 @@
     </row>
     <row r="214" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>516</v>
+        <v>478</v>
       </c>
       <c r="B214" t="s">
-        <v>249</v>
+        <v>211</v>
       </c>
       <c r="C214" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D214">
         <v>112.27621483375958</v>
@@ -28885,13 +28852,13 @@
     </row>
     <row r="215" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>517</v>
+        <v>479</v>
       </c>
       <c r="B215" t="s">
-        <v>250</v>
+        <v>212</v>
       </c>
       <c r="C215" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D215">
         <v>112.21864951768488</v>
@@ -29010,13 +28977,13 @@
     </row>
     <row r="216" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>518</v>
+        <v>480</v>
       </c>
       <c r="B216" t="s">
-        <v>251</v>
+        <v>213</v>
       </c>
       <c r="C216" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D216">
         <v>91.95804195804196</v>
@@ -29135,13 +29102,13 @@
     </row>
     <row r="217" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>519</v>
+        <v>481</v>
       </c>
       <c r="B217" t="s">
-        <v>252</v>
+        <v>214</v>
       </c>
       <c r="C217" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D217">
         <v>110.30927835051547</v>
@@ -29260,13 +29227,13 @@
     </row>
     <row r="218" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>520</v>
+        <v>482</v>
       </c>
       <c r="B218" t="s">
-        <v>253</v>
+        <v>215</v>
       </c>
       <c r="C218" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D218">
         <v>115.29462738301559</v>
@@ -29385,13 +29352,13 @@
     </row>
     <row r="219" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>521</v>
+        <v>483</v>
       </c>
       <c r="B219" t="s">
-        <v>254</v>
+        <v>216</v>
       </c>
       <c r="C219" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D219">
         <v>105.15021459227466</v>
@@ -29510,13 +29477,13 @@
     </row>
     <row r="220" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>522</v>
+        <v>484</v>
       </c>
       <c r="B220" t="s">
-        <v>255</v>
+        <v>217</v>
       </c>
       <c r="C220" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D220">
         <v>106.90537084398977</v>
@@ -29635,13 +29602,13 @@
     </row>
     <row r="221" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>523</v>
+        <v>485</v>
       </c>
       <c r="B221" t="s">
-        <v>256</v>
+        <v>218</v>
       </c>
       <c r="C221" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D221">
         <v>121.64383561643837</v>
@@ -29760,13 +29727,13 @@
     </row>
     <row r="222" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>524</v>
+        <v>486</v>
       </c>
       <c r="B222" t="s">
-        <v>257</v>
+        <v>219</v>
       </c>
       <c r="C222" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D222">
         <v>104.24710424710423</v>
@@ -29885,13 +29852,13 @@
     </row>
     <row r="223" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>525</v>
+        <v>487</v>
       </c>
       <c r="B223" t="s">
+        <v>220</v>
+      </c>
+      <c r="C223" t="s">
         <v>258</v>
-      </c>
-      <c r="C223" t="s">
-        <v>296</v>
       </c>
       <c r="D223">
         <v>115.82417582417584</v>
@@ -30010,13 +29977,13 @@
     </row>
     <row r="224" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>526</v>
+        <v>488</v>
       </c>
       <c r="B224" t="s">
-        <v>259</v>
+        <v>221</v>
       </c>
       <c r="C224" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D224">
         <v>106.65083135391924</v>
@@ -30135,13 +30102,13 @@
     </row>
     <row r="225" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>527</v>
+        <v>489</v>
       </c>
       <c r="B225" t="s">
-        <v>260</v>
+        <v>222</v>
       </c>
       <c r="C225" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D225">
         <v>103.62537764350452</v>
@@ -30260,13 +30227,13 @@
     </row>
     <row r="226" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>528</v>
+        <v>490</v>
       </c>
       <c r="B226" t="s">
-        <v>261</v>
+        <v>223</v>
       </c>
       <c r="C226" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D226">
         <v>104.91159135559923</v>
@@ -30385,13 +30352,13 @@
     </row>
     <row r="227" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>529</v>
+        <v>491</v>
       </c>
       <c r="B227" t="s">
-        <v>262</v>
+        <v>224</v>
       </c>
       <c r="C227" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D227">
         <v>103.85756676557864</v>
@@ -30510,13 +30477,13 @@
     </row>
     <row r="228" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>530</v>
+        <v>492</v>
       </c>
       <c r="B228" t="s">
-        <v>263</v>
+        <v>225</v>
       </c>
       <c r="C228" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D228">
         <v>107.13073005093379</v>
@@ -30635,13 +30602,13 @@
     </row>
     <row r="229" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>531</v>
+        <v>493</v>
       </c>
       <c r="B229" t="s">
-        <v>264</v>
+        <v>226</v>
       </c>
       <c r="C229" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D229">
         <v>107.17846460618145</v>
@@ -30760,13 +30727,13 @@
     </row>
     <row r="230" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>532</v>
+        <v>494</v>
       </c>
       <c r="B230" t="s">
-        <v>265</v>
+        <v>227</v>
       </c>
       <c r="C230" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D230">
         <v>109.3484419263456</v>
@@ -30885,13 +30852,13 @@
     </row>
     <row r="231" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>533</v>
+        <v>495</v>
       </c>
       <c r="B231" t="s">
-        <v>266</v>
+        <v>228</v>
       </c>
       <c r="C231" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D231">
         <v>103.97862232779099</v>
@@ -31010,13 +30977,13 @@
     </row>
     <row r="232" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>534</v>
+        <v>496</v>
       </c>
       <c r="B232" t="s">
-        <v>267</v>
+        <v>229</v>
       </c>
       <c r="C232" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D232">
         <v>102.92682926829269</v>
@@ -31135,13 +31102,13 @@
     </row>
     <row r="233" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>535</v>
+        <v>497</v>
       </c>
       <c r="B233" t="s">
-        <v>268</v>
+        <v>230</v>
       </c>
       <c r="C233" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D233">
         <v>102.27882037533512</v>
@@ -31260,13 +31227,13 @@
     </row>
     <row r="234" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>536</v>
+        <v>498</v>
       </c>
       <c r="B234" t="s">
-        <v>269</v>
+        <v>231</v>
       </c>
       <c r="C234" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D234">
         <v>104.16666666666667</v>
@@ -31385,13 +31352,13 @@
     </row>
     <row r="235" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>537</v>
+        <v>499</v>
       </c>
       <c r="B235" t="s">
-        <v>270</v>
+        <v>232</v>
       </c>
       <c r="C235" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D235">
         <v>97.176470588235304</v>
@@ -31510,13 +31477,13 @@
     </row>
     <row r="236" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>538</v>
+        <v>500</v>
       </c>
       <c r="B236" t="s">
-        <v>271</v>
+        <v>233</v>
       </c>
       <c r="C236" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D236">
         <v>103.05997552019583</v>
@@ -31635,13 +31602,13 @@
     </row>
     <row r="237" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>539</v>
+        <v>501</v>
       </c>
       <c r="B237" t="s">
-        <v>272</v>
+        <v>234</v>
       </c>
       <c r="C237" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D237">
         <v>111.41732283464567</v>
@@ -31760,13 +31727,13 @@
     </row>
     <row r="238" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>540</v>
+        <v>502</v>
       </c>
       <c r="B238" t="s">
-        <v>273</v>
+        <v>235</v>
       </c>
       <c r="C238" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D238">
         <v>101.25944584382871</v>
@@ -31885,13 +31852,13 @@
     </row>
     <row r="239" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>541</v>
+        <v>503</v>
       </c>
       <c r="B239" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="C239" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D239">
         <v>112.01923076923077</v>
@@ -32010,13 +31977,13 @@
     </row>
     <row r="240" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>542</v>
+        <v>504</v>
       </c>
       <c r="B240" t="s">
-        <v>275</v>
+        <v>237</v>
       </c>
       <c r="C240" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D240">
         <v>109.62343096234311</v>
@@ -32135,13 +32102,13 @@
     </row>
     <row r="241" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>543</v>
+        <v>505</v>
       </c>
       <c r="B241" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="C241" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D241">
         <v>97.373029772329247</v>
@@ -32260,13 +32227,13 @@
     </row>
     <row r="242" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>544</v>
+        <v>506</v>
       </c>
       <c r="B242" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
       <c r="C242" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D242">
         <v>103.15955766192732</v>
@@ -32385,13 +32352,13 @@
     </row>
     <row r="243" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>545</v>
+        <v>507</v>
       </c>
       <c r="B243" t="s">
-        <v>278</v>
+        <v>240</v>
       </c>
       <c r="C243" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D243">
         <v>105.39311241065627</v>
@@ -32510,13 +32477,13 @@
     </row>
     <row r="244" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>546</v>
+        <v>508</v>
       </c>
       <c r="B244" t="s">
-        <v>279</v>
+        <v>241</v>
       </c>
       <c r="C244" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D244">
         <v>111.42533936651584</v>
@@ -32635,13 +32602,13 @@
     </row>
     <row r="245" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>547</v>
+        <v>509</v>
       </c>
       <c r="B245" t="s">
-        <v>280</v>
+        <v>242</v>
       </c>
       <c r="C245" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D245">
         <v>107.12719298245614</v>
@@ -32760,13 +32727,13 @@
     </row>
     <row r="246" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>548</v>
+        <v>510</v>
       </c>
       <c r="B246" t="s">
-        <v>281</v>
+        <v>243</v>
       </c>
       <c r="C246" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D246">
         <v>111.92660550458714</v>
@@ -32885,13 +32852,13 @@
     </row>
     <row r="247" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>549</v>
+        <v>511</v>
       </c>
       <c r="B247" t="s">
-        <v>282</v>
+        <v>244</v>
       </c>
       <c r="C247" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D247">
         <v>105.4120541205412</v>
@@ -33010,13 +32977,13 @@
     </row>
     <row r="248" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>550</v>
+        <v>512</v>
       </c>
       <c r="B248" t="s">
-        <v>283</v>
+        <v>245</v>
       </c>
       <c r="C248" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D248">
         <v>111.98347107438016</v>
@@ -33135,13 +33102,13 @@
     </row>
     <row r="249" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>551</v>
+        <v>513</v>
       </c>
       <c r="B249" t="s">
-        <v>284</v>
+        <v>246</v>
       </c>
       <c r="C249" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D249">
         <v>110.95571095571096</v>
@@ -33260,13 +33227,13 @@
     </row>
     <row r="250" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>552</v>
+        <v>514</v>
       </c>
       <c r="B250" t="s">
-        <v>285</v>
+        <v>247</v>
       </c>
       <c r="C250" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D250">
         <v>110.71428571428572</v>
@@ -33385,13 +33352,13 @@
     </row>
     <row r="251" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>553</v>
+        <v>515</v>
       </c>
       <c r="B251" t="s">
-        <v>286</v>
+        <v>248</v>
       </c>
       <c r="C251" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D251">
         <v>100.19230769230769</v>
@@ -33510,13 +33477,13 @@
     </row>
     <row r="252" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>554</v>
+        <v>516</v>
       </c>
       <c r="B252" t="s">
-        <v>287</v>
+        <v>249</v>
       </c>
       <c r="C252" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D252">
         <v>111.14457831325302</v>
@@ -33635,13 +33602,13 @@
     </row>
     <row r="253" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>555</v>
+        <v>517</v>
       </c>
       <c r="B253" t="s">
-        <v>288</v>
+        <v>250</v>
       </c>
       <c r="C253" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D253">
         <v>111.97053406998158</v>
@@ -33760,13 +33727,13 @@
     </row>
     <row r="254" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>556</v>
+        <v>518</v>
       </c>
       <c r="B254" t="s">
-        <v>289</v>
+        <v>251</v>
       </c>
       <c r="C254" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D254">
         <v>100.29806259314455</v>
@@ -33885,13 +33852,13 @@
     </row>
     <row r="255" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>557</v>
+        <v>519</v>
       </c>
       <c r="B255" t="s">
-        <v>290</v>
+        <v>252</v>
       </c>
       <c r="C255" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D255">
         <v>105.37459283387622</v>
@@ -34010,13 +33977,13 @@
     </row>
     <row r="256" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>558</v>
+        <v>520</v>
       </c>
       <c r="B256" t="s">
-        <v>291</v>
+        <v>253</v>
       </c>
       <c r="C256" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D256">
         <v>112.09677419354837</v>
@@ -34135,13 +34102,13 @@
     </row>
     <row r="257" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>559</v>
+        <v>521</v>
       </c>
       <c r="B257" t="s">
-        <v>292</v>
+        <v>254</v>
       </c>
       <c r="C257" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D257">
         <v>107.14285714285714</v>
@@ -34260,13 +34227,13 @@
     </row>
     <row r="258" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>560</v>
+        <v>522</v>
       </c>
       <c r="B258" t="s">
-        <v>293</v>
+        <v>255</v>
       </c>
       <c r="C258" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D258">
         <v>111.43617021276594</v>
@@ -34385,13 +34352,13 @@
     </row>
     <row r="259" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>561</v>
+        <v>523</v>
       </c>
       <c r="B259" t="s">
-        <v>294</v>
+        <v>256</v>
       </c>
       <c r="C259" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D259">
         <v>111.37440758293839</v>
